--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1540434.914643524</v>
+        <v>1537897.490099858</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9988209.873722255</v>
+        <v>9988209.873722259</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1148,52 +1148,52 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,67 +1209,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>6.876045741711437</v>
@@ -1288,67 +1288,67 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="T10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.3917250821577</v>
+        <v>338.3917250821578</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>320.9307751896848</v>
       </c>
       <c r="D11" t="n">
-        <v>310.3409250393601</v>
+        <v>176.3440509507953</v>
       </c>
       <c r="E11" t="n">
-        <v>337.5882534909389</v>
+        <v>337.5882534909391</v>
       </c>
       <c r="F11" t="n">
-        <v>362.5339291603886</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.5796090721306</v>
+        <v>366.5796090721307</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.84564520685298</v>
+        <v>64.84564520685312</v>
       </c>
       <c r="T11" t="n">
-        <v>159.5758535582973</v>
+        <v>159.5758535582974</v>
       </c>
       <c r="U11" t="n">
-        <v>206.6530553775791</v>
+        <v>206.6530553775792</v>
       </c>
       <c r="V11" t="n">
-        <v>283.4101418888121</v>
+        <v>283.4101418888122</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2988240768216</v>
+        <v>304.8988521360903</v>
       </c>
       <c r="X11" t="n">
-        <v>325.3889840971462</v>
+        <v>325.3889840971463</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.8958220747307</v>
+        <v>341.8958220747309</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.4898636006145</v>
+        <v>135.4898636006146</v>
       </c>
       <c r="C13" t="n">
-        <v>122.904704517305</v>
+        <v>122.9047045173051</v>
       </c>
       <c r="D13" t="n">
-        <v>104.2733564368895</v>
+        <v>104.2733564368896</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0918460652463</v>
+        <v>39.31854196070347</v>
       </c>
       <c r="F13" t="n">
-        <v>101.0789314416084</v>
+        <v>101.0789314416085</v>
       </c>
       <c r="G13" t="n">
-        <v>58.91038757316559</v>
+        <v>121.6836916777055</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4128983329979</v>
+        <v>100.4128983329981</v>
       </c>
       <c r="I13" t="n">
-        <v>52.01030382851526</v>
+        <v>52.01030382851538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.5900360887245</v>
+        <v>44.59003608872462</v>
       </c>
       <c r="S13" t="n">
-        <v>145.4269087501191</v>
+        <v>145.4269087501192</v>
       </c>
       <c r="T13" t="n">
-        <v>175.2068326948464</v>
+        <v>175.2068326948465</v>
       </c>
       <c r="U13" t="n">
-        <v>241.86972162429</v>
+        <v>241.8697216242902</v>
       </c>
       <c r="V13" t="n">
-        <v>207.7955267425052</v>
+        <v>207.7955267425053</v>
       </c>
       <c r="W13" t="n">
-        <v>242.1808817552682</v>
+        <v>242.1808817552683</v>
       </c>
       <c r="X13" t="n">
-        <v>181.3675388077143</v>
+        <v>181.3675388077144</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.2425367707719</v>
+        <v>174.2425367707721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.3917250821577</v>
+        <v>338.3917250821578</v>
       </c>
       <c r="C14" t="n">
-        <v>320.9307751896847</v>
+        <v>186.9339011011204</v>
       </c>
       <c r="D14" t="n">
-        <v>310.3409250393601</v>
+        <v>310.3409250393602</v>
       </c>
       <c r="E14" t="n">
-        <v>337.5882534909389</v>
+        <v>337.5882534909391</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5339291603886</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>366.5796090721306</v>
+        <v>366.5796090721307</v>
       </c>
       <c r="H14" t="n">
-        <v>250.2656478059976</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.84564520685298</v>
+        <v>64.84564520685312</v>
       </c>
       <c r="T14" t="n">
-        <v>159.5758535582973</v>
+        <v>159.5758535582974</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.6530553775792</v>
       </c>
       <c r="V14" t="n">
-        <v>68.6557303085867</v>
+        <v>283.4101418888122</v>
       </c>
       <c r="W14" t="n">
-        <v>304.8988521360902</v>
+        <v>304.8988521360903</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>325.3889840971463</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.8958220747307</v>
+        <v>341.8958220747309</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.4898636006145</v>
+        <v>135.4898636006146</v>
       </c>
       <c r="C16" t="n">
-        <v>122.904704517305</v>
+        <v>122.9047045173051</v>
       </c>
       <c r="D16" t="n">
-        <v>104.2733564368895</v>
+        <v>104.2733564368896</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0918460652463</v>
+        <v>102.0918460652464</v>
       </c>
       <c r="F16" t="n">
-        <v>101.0789314416084</v>
+        <v>101.0789314416085</v>
       </c>
       <c r="G16" t="n">
-        <v>58.91038757316519</v>
+        <v>121.6836916777055</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4128983329979</v>
+        <v>37.63959422845463</v>
       </c>
       <c r="I16" t="n">
-        <v>52.01030382851526</v>
+        <v>52.01030382851538</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.5900360887245</v>
+        <v>44.59003608872462</v>
       </c>
       <c r="S16" t="n">
-        <v>145.4269087501191</v>
+        <v>145.4269087501192</v>
       </c>
       <c r="T16" t="n">
-        <v>175.2068326948464</v>
+        <v>175.2068326948465</v>
       </c>
       <c r="U16" t="n">
-        <v>241.86972162429</v>
+        <v>241.8697216242902</v>
       </c>
       <c r="V16" t="n">
-        <v>207.7955267425052</v>
+        <v>207.7955267425053</v>
       </c>
       <c r="W16" t="n">
-        <v>242.1808817552682</v>
+        <v>242.1808817552683</v>
       </c>
       <c r="X16" t="n">
-        <v>181.3675388077143</v>
+        <v>181.3675388077144</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.2425367707719</v>
+        <v>174.2425367707721</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>165.7403588440854</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>236.6002797240835</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1910,7 +1910,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F20" t="n">
-        <v>316.1791597236258</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>197.2952558794569</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2321,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2378,10 +2378,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2564,7 +2564,7 @@
         <v>336.8612733332716</v>
       </c>
       <c r="F26" t="n">
-        <v>361.8069490027213</v>
+        <v>361.8069490027212</v>
       </c>
       <c r="G26" t="n">
         <v>365.8526289144633</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.11866504918571</v>
+        <v>64.11866504918565</v>
       </c>
       <c r="T26" t="n">
         <v>158.84887340063</v>
@@ -2612,13 +2612,13 @@
         <v>205.9260752199118</v>
       </c>
       <c r="V26" t="n">
-        <v>282.6831617311448</v>
+        <v>282.6831617311447</v>
       </c>
       <c r="W26" t="n">
-        <v>304.1718719784229</v>
+        <v>304.1718719784228</v>
       </c>
       <c r="X26" t="n">
-        <v>324.6620039394789</v>
+        <v>324.6620039394788</v>
       </c>
       <c r="Y26" t="n">
         <v>341.1688419170634</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.7628834429472</v>
+        <v>134.7628834429471</v>
       </c>
       <c r="C28" t="n">
-        <v>122.1777243596377</v>
+        <v>122.1777243596376</v>
       </c>
       <c r="D28" t="n">
         <v>103.5463762792222</v>
@@ -2722,16 +2722,16 @@
         <v>101.364865907579</v>
       </c>
       <c r="F28" t="n">
-        <v>100.3519512839411</v>
+        <v>100.351951283941</v>
       </c>
       <c r="G28" t="n">
-        <v>120.9567115200381</v>
+        <v>120.956711520038</v>
       </c>
       <c r="H28" t="n">
-        <v>99.68591817533064</v>
+        <v>54.24440261370582</v>
       </c>
       <c r="I28" t="n">
-        <v>51.28332367084798</v>
+        <v>51.28332367084791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.8630559310572</v>
+        <v>43.86305593105715</v>
       </c>
       <c r="S28" t="n">
-        <v>144.6999285924518</v>
+        <v>144.6999285924517</v>
       </c>
       <c r="T28" t="n">
-        <v>174.4798525371791</v>
+        <v>174.479852537179</v>
       </c>
       <c r="U28" t="n">
         <v>241.1427414666227</v>
       </c>
       <c r="V28" t="n">
-        <v>207.0685465848379</v>
+        <v>207.0685465848378</v>
       </c>
       <c r="W28" t="n">
-        <v>241.4539015976009</v>
+        <v>241.4539015976008</v>
       </c>
       <c r="X28" t="n">
-        <v>135.1990430884212</v>
+        <v>180.640558650047</v>
       </c>
       <c r="Y28" t="n">
         <v>173.5155566131046</v>
@@ -2801,7 +2801,7 @@
         <v>336.8612733332716</v>
       </c>
       <c r="F29" t="n">
-        <v>361.8069490027213</v>
+        <v>361.8069490027212</v>
       </c>
       <c r="G29" t="n">
         <v>365.8526289144633</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.11866504918571</v>
+        <v>64.11866504918567</v>
       </c>
       <c r="T29" t="n">
         <v>158.84887340063</v>
@@ -2849,13 +2849,13 @@
         <v>205.9260752199118</v>
       </c>
       <c r="V29" t="n">
-        <v>282.6831617311448</v>
+        <v>282.6831617311447</v>
       </c>
       <c r="W29" t="n">
-        <v>304.1718719784229</v>
+        <v>304.1718719784228</v>
       </c>
       <c r="X29" t="n">
-        <v>324.6620039394789</v>
+        <v>324.6620039394788</v>
       </c>
       <c r="Y29" t="n">
         <v>341.1688419170634</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.32136788132183</v>
+        <v>134.7628834429471</v>
       </c>
       <c r="C31" t="n">
-        <v>122.1777243596377</v>
+        <v>122.1777243596376</v>
       </c>
       <c r="D31" t="n">
         <v>103.5463762792222</v>
@@ -2959,16 +2959,16 @@
         <v>101.364865907579</v>
       </c>
       <c r="F31" t="n">
-        <v>100.3519512839411</v>
+        <v>100.351951283941</v>
       </c>
       <c r="G31" t="n">
-        <v>120.9567115200381</v>
+        <v>120.956711520038</v>
       </c>
       <c r="H31" t="n">
-        <v>99.68591817533064</v>
+        <v>99.68591817533058</v>
       </c>
       <c r="I31" t="n">
-        <v>51.28332367084797</v>
+        <v>5.841808109223879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.8630559310572</v>
+        <v>43.86305593105715</v>
       </c>
       <c r="S31" t="n">
-        <v>144.6999285924518</v>
+        <v>144.6999285924517</v>
       </c>
       <c r="T31" t="n">
-        <v>174.4798525371791</v>
+        <v>174.479852537179</v>
       </c>
       <c r="U31" t="n">
         <v>241.1427414666227</v>
       </c>
       <c r="V31" t="n">
-        <v>207.0685465848379</v>
+        <v>207.0685465848378</v>
       </c>
       <c r="W31" t="n">
-        <v>241.4539015976009</v>
+        <v>241.4539015976008</v>
       </c>
       <c r="X31" t="n">
         <v>180.640558650047</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
@@ -3901,22 +3901,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433862</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247662</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4150,10 +4150,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
@@ -4805,49 +4805,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>6.153628812379734</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>12.96091409667406</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>12.96091409667406</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>12.96091409667406</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>19.76819938096838</v>
+        <v>26.57548466526183</v>
       </c>
       <c r="P8" t="n">
-        <v>26.5754846652627</v>
+        <v>26.57548466526183</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
         <v>0.5500836593369149</v>
@@ -4881,22 +4881,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.875630910537266</v>
       </c>
       <c r="K9" t="n">
-        <v>7.082327113962777</v>
+        <v>4.875630910537266</v>
       </c>
       <c r="L9" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P9" t="n">
         <v>20.69689768255142</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4972,7 +4972,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1457.464355586545</v>
+        <v>1280.090589870113</v>
       </c>
       <c r="C11" t="n">
-        <v>1457.464355586545</v>
+        <v>955.9180896785116</v>
       </c>
       <c r="D11" t="n">
-        <v>1143.988673728606</v>
+        <v>777.7927856878096</v>
       </c>
       <c r="E11" t="n">
-        <v>802.9904378791725</v>
+        <v>436.7945498383761</v>
       </c>
       <c r="F11" t="n">
-        <v>436.7945498383759</v>
+        <v>436.7945498383761</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3260.105169885076</v>
+        <v>3260.105169885077</v>
       </c>
       <c r="T11" t="n">
         <v>3098.917439018109</v>
       </c>
       <c r="U11" t="n">
-        <v>2890.176979040756</v>
+        <v>2890.176979040757</v>
       </c>
       <c r="V11" t="n">
-        <v>2603.904108445996</v>
+        <v>2603.904108445997</v>
       </c>
       <c r="W11" t="n">
-        <v>2473.299235641126</v>
+        <v>2295.925469924694</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.623494128857</v>
+        <v>1967.249728412424</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.274178901856</v>
+        <v>1621.900413185424</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6761853167573</v>
+        <v>714.6761853167549</v>
       </c>
       <c r="C13" t="n">
-        <v>590.5300191376613</v>
+        <v>590.5300191376588</v>
       </c>
       <c r="D13" t="n">
-        <v>485.2033964741365</v>
+        <v>485.2033964741339</v>
       </c>
       <c r="E13" t="n">
-        <v>382.0803196405543</v>
+        <v>445.4876975239283</v>
       </c>
       <c r="F13" t="n">
-        <v>279.980388891455</v>
+        <v>343.3877667748288</v>
       </c>
       <c r="G13" t="n">
-        <v>220.4749468983583</v>
+        <v>220.4749468983586</v>
       </c>
       <c r="H13" t="n">
-        <v>119.0477768650271</v>
+        <v>119.0477768650272</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>155.5334442946286</v>
+        <v>155.5334442946284</v>
       </c>
       <c r="K13" t="n">
-        <v>403.4193226590146</v>
+        <v>403.4193226590142</v>
       </c>
       <c r="L13" t="n">
-        <v>763.8778165230203</v>
+        <v>763.8778165230198</v>
       </c>
       <c r="M13" t="n">
-        <v>1151.933557538079</v>
+        <v>1151.933557538078</v>
       </c>
       <c r="N13" t="n">
-        <v>1537.240629659453</v>
+        <v>1537.240629659452</v>
       </c>
       <c r="O13" t="n">
-        <v>1880.468923995376</v>
+        <v>1880.468923995375</v>
       </c>
       <c r="P13" t="n">
-        <v>2156.975119844545</v>
+        <v>2156.975119844544</v>
       </c>
       <c r="Q13" t="n">
-        <v>2278.484111412569</v>
+        <v>2278.484111412568</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.443670918908</v>
+        <v>2233.443670918907</v>
       </c>
       <c r="S13" t="n">
-        <v>2086.547803494545</v>
+        <v>2086.547803494544</v>
       </c>
       <c r="T13" t="n">
-        <v>1909.571204812883</v>
+        <v>1909.571204812881</v>
       </c>
       <c r="U13" t="n">
-        <v>1665.258354687337</v>
+        <v>1665.258354687335</v>
       </c>
       <c r="V13" t="n">
-        <v>1455.363883230261</v>
+        <v>1455.363883230259</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.736729942111</v>
+        <v>1210.73672994211</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.537195792905</v>
+        <v>1027.537195792903</v>
       </c>
       <c r="Y13" t="n">
-        <v>851.534633398186</v>
+        <v>851.5346333981837</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.430439420568</v>
+        <v>1280.090589870113</v>
       </c>
       <c r="C14" t="n">
-        <v>1710.257939228968</v>
+        <v>1091.268467545749</v>
       </c>
       <c r="D14" t="n">
-        <v>1396.782257371028</v>
+        <v>777.7927856878096</v>
       </c>
       <c r="E14" t="n">
-        <v>1055.784021521595</v>
+        <v>436.7945498383761</v>
       </c>
       <c r="F14" t="n">
-        <v>689.5881334807983</v>
+        <v>436.7945498383761</v>
       </c>
       <c r="G14" t="n">
-        <v>319.3057000746052</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5297,7 +5297,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
@@ -5309,19 +5309,19 @@
         <v>3098.917439018109</v>
       </c>
       <c r="U14" t="n">
-        <v>3098.917439018109</v>
+        <v>2890.176979040757</v>
       </c>
       <c r="V14" t="n">
-        <v>3029.568216484183</v>
+        <v>2603.904108445997</v>
       </c>
       <c r="W14" t="n">
-        <v>2721.58957796288</v>
+        <v>2295.925469924694</v>
       </c>
       <c r="X14" t="n">
-        <v>2721.58957796288</v>
+        <v>1967.249728412425</v>
       </c>
       <c r="Y14" t="n">
-        <v>2376.240262735879</v>
+        <v>1621.900413185424</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.676185316757</v>
+        <v>714.6761853167543</v>
       </c>
       <c r="C16" t="n">
-        <v>590.530019137661</v>
+        <v>590.5300191376582</v>
       </c>
       <c r="D16" t="n">
-        <v>485.2033964741362</v>
+        <v>485.2033964741333</v>
       </c>
       <c r="E16" t="n">
-        <v>382.0803196405541</v>
+        <v>382.080319640551</v>
       </c>
       <c r="F16" t="n">
-        <v>279.9803888914545</v>
+        <v>279.9803888914515</v>
       </c>
       <c r="G16" t="n">
-        <v>220.4749468983583</v>
+        <v>157.0675690149813</v>
       </c>
       <c r="H16" t="n">
         <v>119.0477768650271</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>155.5334442946287</v>
+        <v>155.5334442946285</v>
       </c>
       <c r="K16" t="n">
-        <v>403.4193226590146</v>
+        <v>403.4193226590144</v>
       </c>
       <c r="L16" t="n">
-        <v>763.8778165230203</v>
+        <v>763.8778165230199</v>
       </c>
       <c r="M16" t="n">
-        <v>1151.933557538079</v>
+        <v>1151.933557538078</v>
       </c>
       <c r="N16" t="n">
-        <v>1537.240629659453</v>
+        <v>1537.240629659452</v>
       </c>
       <c r="O16" t="n">
-        <v>1880.468923995376</v>
+        <v>1880.468923995375</v>
       </c>
       <c r="P16" t="n">
-        <v>2156.975119844545</v>
+        <v>2156.975119844544</v>
       </c>
       <c r="Q16" t="n">
-        <v>2278.484111412569</v>
+        <v>2278.484111412568</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.443670918908</v>
+        <v>2233.443670918907</v>
       </c>
       <c r="S16" t="n">
-        <v>2086.547803494545</v>
+        <v>2086.547803494544</v>
       </c>
       <c r="T16" t="n">
-        <v>1909.571204812882</v>
+        <v>1909.571204812881</v>
       </c>
       <c r="U16" t="n">
-        <v>1665.258354687337</v>
+        <v>1665.258354687335</v>
       </c>
       <c r="V16" t="n">
-        <v>1455.363883230261</v>
+        <v>1455.363883230259</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.736729942111</v>
+        <v>1210.736729942109</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.537195792905</v>
+        <v>1027.537195792902</v>
       </c>
       <c r="Y16" t="n">
-        <v>851.5346333981857</v>
+        <v>851.5346333981831</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1507.448363242301</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C17" t="n">
-        <v>1185.935479249963</v>
+        <v>979.8546354718733</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.520975367048</v>
+        <v>669.038569813196</v>
       </c>
       <c r="E17" t="n">
-        <v>680.1823557168773</v>
+        <v>669.038569813196</v>
       </c>
       <c r="F17" t="n">
-        <v>316.6460838753429</v>
+        <v>305.5022979716617</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>305.5022979716617</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.55555606017</v>
@@ -5531,7 +5531,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052367</v>
@@ -5540,25 +5540,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>3104.236671416633</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2820.623417021136</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2515.304394699095</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.288269386088</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>1846.598570358349</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052938</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254602</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611978</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315269</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328098</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337125</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1606.686541786252</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.173657793914</v>
+        <v>1329.337041025726</v>
       </c>
       <c r="D20" t="n">
-        <v>974.3575921352366</v>
+        <v>1018.520975367049</v>
       </c>
       <c r="E20" t="n">
-        <v>636.0189724850657</v>
+        <v>680.1823557168775</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638543</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243046</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W20" t="n">
-        <v>2614.542573243046</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="X20" t="n">
-        <v>2288.526447930039</v>
+        <v>2189.288269386089</v>
       </c>
       <c r="Y20" t="n">
-        <v>1945.836748902301</v>
+        <v>1990.000132134113</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5841,7 +5841,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,67 +5884,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328098</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337125</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U22" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W22" t="n">
         <v>1247.547945832862</v>
@@ -5953,7 +5953,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697161</v>
@@ -5975,10 +5975,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
         <v>81.14691689668915</v>
@@ -5996,22 +5996,22 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M23" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N23" t="n">
-        <v>2568.163811692541</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O23" t="n">
-        <v>3071.136282571877</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309626</v>
@@ -6066,19 +6066,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
         <v>229.7905149643394</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194911</v>
       </c>
       <c r="C26" t="n">
         <v>1721.771206394894</v>
@@ -6215,13 +6215,13 @@
         <v>703.3043708214741</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7562608068648</v>
+        <v>333.7562608068647</v>
       </c>
       <c r="H26" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="I26" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J26" t="n">
         <v>270.5761315150514</v>
@@ -6233,19 +6233,19 @@
         <v>1055.429718453306</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.980021283135</v>
+        <v>1588.961623125231</v>
       </c>
       <c r="N26" t="n">
-        <v>2879.799762252304</v>
+        <v>2496.159785488283</v>
       </c>
       <c r="O26" t="n">
-        <v>3382.772233131641</v>
+        <v>2999.132256367619</v>
       </c>
       <c r="P26" t="n">
-        <v>3777.546599488819</v>
+        <v>3712.487343814565</v>
       </c>
       <c r="Q26" t="n">
-        <v>4025.832961244501</v>
+        <v>3960.773705570247</v>
       </c>
       <c r="R26" t="n">
         <v>4084.850027801303</v>
@@ -6254,7 +6254,7 @@
         <v>4020.083699468792</v>
       </c>
       <c r="T26" t="n">
-        <v>3859.630291993409</v>
+        <v>3859.630291993408</v>
       </c>
       <c r="U26" t="n">
         <v>3651.624155407639</v>
@@ -6263,10 +6263,10 @@
         <v>3366.085608204462</v>
       </c>
       <c r="W26" t="n">
-        <v>3058.841293074743</v>
+        <v>3058.841293074742</v>
       </c>
       <c r="X26" t="n">
-        <v>2730.899874954057</v>
+        <v>2730.899874954056</v>
       </c>
       <c r="Y26" t="n">
         <v>2386.284883118639</v>
@@ -6300,16 +6300,16 @@
         <v>100.7042921544881</v>
       </c>
       <c r="I27" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3742700466433</v>
+        <v>175.3742700466436</v>
       </c>
       <c r="K27" t="n">
-        <v>413.6384690269904</v>
+        <v>413.6384690269907</v>
       </c>
       <c r="L27" t="n">
-        <v>780.3366293396557</v>
+        <v>780.3366293396559</v>
       </c>
       <c r="M27" t="n">
         <v>1227.612954561972</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.1281835828914</v>
+        <v>742.2276628135733</v>
       </c>
       <c r="C28" t="n">
-        <v>664.7163407953786</v>
+        <v>618.8158200260605</v>
       </c>
       <c r="D28" t="n">
-        <v>560.124041523437</v>
+        <v>514.2235207541189</v>
       </c>
       <c r="E28" t="n">
-        <v>457.7352880814379</v>
+        <v>411.8347673121199</v>
       </c>
       <c r="F28" t="n">
-        <v>356.3696807239217</v>
+        <v>310.4691599546036</v>
       </c>
       <c r="G28" t="n">
-        <v>234.1911842390347</v>
+        <v>188.2906634697167</v>
       </c>
       <c r="H28" t="n">
         <v>133.4983375972866</v>
       </c>
       <c r="I28" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J28" t="n">
-        <v>171.4380387745618</v>
+        <v>171.4380387745619</v>
       </c>
       <c r="K28" t="n">
-        <v>420.0436274950383</v>
+        <v>420.0436274950385</v>
       </c>
       <c r="L28" t="n">
-        <v>781.2218317151346</v>
+        <v>781.2218317151348</v>
       </c>
       <c r="M28" t="n">
         <v>1169.997283086284</v>
@@ -6397,7 +6397,7 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O28" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P28" t="n">
         <v>2177.197976461022</v>
@@ -6409,25 +6409,25 @@
         <v>2255.120561283059</v>
       </c>
       <c r="S28" t="n">
-        <v>2108.959017250279</v>
+        <v>2108.95901725028</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.716741960199</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U28" t="n">
         <v>1689.138215226237</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.978067160744</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.085237264177</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.520547275873</v>
+        <v>1053.620026506555</v>
       </c>
       <c r="Y28" t="n">
-        <v>924.2523082727371</v>
+        <v>878.3517875034188</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194911</v>
       </c>
       <c r="C29" t="n">
         <v>1721.771206394894</v>
@@ -6449,40 +6449,40 @@
         <v>1068.765935470688</v>
       </c>
       <c r="F29" t="n">
-        <v>703.304370821474</v>
+        <v>703.3043708214742</v>
       </c>
       <c r="G29" t="n">
-        <v>333.7562608068648</v>
+        <v>333.7562608068647</v>
       </c>
       <c r="H29" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="I29" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J29" t="n">
-        <v>270.5761315150514</v>
+        <v>437.9817805354045</v>
       </c>
       <c r="K29" t="n">
-        <v>604.3955052048977</v>
+        <v>771.8011542252509</v>
       </c>
       <c r="L29" t="n">
-        <v>1103.916139981712</v>
+        <v>1222.83536747366</v>
       </c>
       <c r="M29" t="n">
-        <v>1637.448044653636</v>
+        <v>1756.367272145584</v>
       </c>
       <c r="N29" t="n">
-        <v>2184.226861712418</v>
+        <v>2303.146089204366</v>
       </c>
       <c r="O29" t="n">
-        <v>3064.191512041873</v>
+        <v>2806.118560083703</v>
       </c>
       <c r="P29" t="n">
-        <v>3777.546599488819</v>
+        <v>3502.29550306126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4025.832961244501</v>
+        <v>3960.773705570248</v>
       </c>
       <c r="R29" t="n">
         <v>4084.850027801303</v>
@@ -6491,13 +6491,13 @@
         <v>4020.083699468792</v>
       </c>
       <c r="T29" t="n">
-        <v>3859.630291993409</v>
+        <v>3859.630291993408</v>
       </c>
       <c r="U29" t="n">
         <v>3651.624155407639</v>
       </c>
       <c r="V29" t="n">
-        <v>3366.085608204462</v>
+        <v>3366.085608204463</v>
       </c>
       <c r="W29" t="n">
         <v>3058.841293074743</v>
@@ -6537,19 +6537,19 @@
         <v>100.7042921544881</v>
       </c>
       <c r="I30" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3742700466433</v>
+        <v>175.3742700466436</v>
       </c>
       <c r="K30" t="n">
-        <v>413.6384690269904</v>
+        <v>413.6384690269907</v>
       </c>
       <c r="L30" t="n">
-        <v>780.3366293396557</v>
+        <v>780.3366293396559</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.612954561971</v>
+        <v>1227.612954561972</v>
       </c>
       <c r="N30" t="n">
         <v>1701.135998116426</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.1281835828916</v>
+        <v>742.2276628135735</v>
       </c>
       <c r="C31" t="n">
-        <v>664.7163407953788</v>
+        <v>618.8158200260607</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1240415234371</v>
+        <v>514.2235207541191</v>
       </c>
       <c r="E31" t="n">
-        <v>457.7352880814381</v>
+        <v>411.8347673121201</v>
       </c>
       <c r="F31" t="n">
-        <v>356.3696807239217</v>
+        <v>310.4691599546039</v>
       </c>
       <c r="G31" t="n">
-        <v>234.1911842390347</v>
+        <v>188.2906634697169</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4983375972866</v>
+        <v>87.59781682796937</v>
       </c>
       <c r="I31" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J31" t="n">
         <v>171.4380387745618</v>
       </c>
       <c r="K31" t="n">
-        <v>420.0436274950384</v>
+        <v>420.0436274950387</v>
       </c>
       <c r="L31" t="n">
-        <v>781.2218317151346</v>
+        <v>781.2218317151351</v>
       </c>
       <c r="M31" t="n">
         <v>1169.997283086284</v>
@@ -6634,7 +6634,7 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O31" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P31" t="n">
         <v>2177.197976461022</v>
@@ -6646,16 +6646,16 @@
         <v>2255.120561283059</v>
       </c>
       <c r="S31" t="n">
-        <v>2108.959017250279</v>
+        <v>2108.95901725028</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.716741960199</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U31" t="n">
-        <v>1689.138215226237</v>
+        <v>1689.138215226238</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.978067160744</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W31" t="n">
         <v>1236.085237264178</v>
@@ -6664,7 +6664,7 @@
         <v>1053.620026506555</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3517875034187</v>
+        <v>878.351787503419</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,34 +6701,34 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6883,16 +6883,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910139</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M35" t="n">
-        <v>1928.524582776558</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.30339983534</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803195</v>
@@ -7078,22 +7078,22 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973143</v>
@@ -7111,7 +7111,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7123,16 +7123,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
@@ -7163,61 +7163,61 @@
         <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910139</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2456.094314970129</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O38" t="n">
-        <v>2959.066785849466</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P38" t="n">
-        <v>3672.421873296411</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803195</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973142</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1543.189242259775</v>
+        <v>1339.011402386886</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N41" t="n">
-        <v>2623.499963990482</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521972</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277654</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863831</v>
@@ -7485,22 +7485,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7573,19 +7573,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.97243057225</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467775</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557144</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455606</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465893</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.16381169254</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O44" t="n">
-        <v>3071.136282571876</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803186</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.062870902634</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7792,7 +7792,7 @@
         <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643393</v>
@@ -7801,16 +7801,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>212.876604986036</v>
+        <v>214.0925041085112</v>
       </c>
       <c r="L8" t="n">
-        <v>226.671878751168</v>
+        <v>226.6718787511667</v>
       </c>
       <c r="M8" t="n">
-        <v>212.5758835944794</v>
+        <v>212.575883594478</v>
       </c>
       <c r="N8" t="n">
-        <v>211.3551711284105</v>
+        <v>218.2312168701204</v>
       </c>
       <c r="O8" t="n">
-        <v>219.9227013672392</v>
+        <v>218.7068022447607</v>
       </c>
       <c r="P8" t="n">
-        <v>223.5559331266452</v>
+        <v>216.6798873849326</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.7217956927321</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>135.6958947140792</v>
+        <v>129.0976690023352</v>
       </c>
       <c r="L9" t="n">
-        <v>126.7973020042542</v>
+        <v>129.0262880683194</v>
       </c>
       <c r="M9" t="n">
-        <v>128.4140787034027</v>
+        <v>135.290124445113</v>
       </c>
       <c r="N9" t="n">
-        <v>124.1346762167932</v>
+        <v>117.2586304750807</v>
       </c>
       <c r="O9" t="n">
-        <v>136.5890218679242</v>
+        <v>129.7129761262117</v>
       </c>
       <c r="P9" t="n">
-        <v>123.634448779951</v>
+        <v>130.5104945216616</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9458313097722</v>
+        <v>139.9458313097717</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.0115522938103</v>
+        <v>135.0115522938098</v>
       </c>
       <c r="M10" t="n">
-        <v>138.6857765133625</v>
+        <v>138.685776513362</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6147408703539</v>
+        <v>127.3369208403852</v>
       </c>
       <c r="O10" t="n">
-        <v>138.6382244210974</v>
+        <v>138.916044451065</v>
       </c>
       <c r="P10" t="n">
-        <v>132.2375458079546</v>
+        <v>132.2375458079541</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.970374914504134</v>
+        <v>62.52018570663859</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>302.0615393034213</v>
+        <v>364.0599447517875</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>48.97618336202561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>304.4470470912918</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>400.2032972882113</v>
+        <v>277.8321087236477</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>19.40311602546603</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>18.79169145623359</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>74.68679478748777</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.40458911672792</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>287.0017854473909</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>231.1066821161374</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>28.65608477603791</v>
       </c>
       <c r="P44" t="n">
-        <v>287.0017854473925</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.32548883971938</v>
+        <v>8.325488839719373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>320.9307751896847</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>133.9968740885649</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>362.5339291603887</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>250.2656478059976</v>
+        <v>250.2656478059978</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>175.6000280592686</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.77330410454297</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.77330410453978</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>133.9968740885645</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>362.5339291603887</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>250.2656478059978</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>206.6530553775791</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>214.7544115802254</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>325.3889840971462</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>62.77330410454018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>62.77330410454342</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>141.967546158005</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.03234804464449</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>43.72174939949304</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>141.9675461580042</v>
       </c>
     </row>
     <row r="21">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.44151556162476</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>45.44151556162578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.44151556162533</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>45.44151556162405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>959540.1902209809</v>
+        <v>959540.1902209806</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>826246.1385166204</v>
+        <v>826246.1385166203</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826246.1385166204</v>
+        <v>826246.1385166203</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831019.9951067657</v>
+        <v>831019.9951067659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831019.995106766</v>
+        <v>831019.9951067658</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340007</v>
       </c>
       <c r="D2" t="n">
-        <v>553755.8661430331</v>
+        <v>553755.8661430333</v>
       </c>
       <c r="E2" t="n">
-        <v>513060.8938167155</v>
+        <v>513060.8938167152</v>
       </c>
       <c r="F2" t="n">
         <v>513060.8938167153</v>
       </c>
       <c r="G2" t="n">
-        <v>516058.4316756438</v>
+        <v>516058.4316756442</v>
       </c>
       <c r="H2" t="n">
-        <v>516058.4316756441</v>
+        <v>516058.4316756442</v>
       </c>
       <c r="I2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="J2" t="n">
+        <v>553467.042106293</v>
+      </c>
+      <c r="K2" t="n">
+        <v>553467.0421062934</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="M2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="J2" t="n">
-        <v>553467.0421062931</v>
-      </c>
-      <c r="K2" t="n">
-        <v>553467.0421062933</v>
-      </c>
-      <c r="L2" t="n">
-        <v>554203.1946583915</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>554203.1946583919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="P2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="N2" t="n">
-        <v>554203.1946583916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583918</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.1946583915</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23695.46889351023</v>
+        <v>23695.46889351197</v>
       </c>
       <c r="E3" t="n">
-        <v>1136963.659906441</v>
+        <v>1136963.659906439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2106.416029815762</v>
+        <v>2106.41602981583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>48646.25967902295</v>
       </c>
       <c r="J3" t="n">
-        <v>35747.9374734207</v>
+        <v>35747.93747342058</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3631.247933497702</v>
+        <v>3631.247933497758</v>
       </c>
       <c r="M3" t="n">
-        <v>205475.0301890554</v>
+        <v>205475.0301890555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33948.86136137636</v>
+        <v>33948.86136137626</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>418989.6393706228</v>
+        <v>418989.6393706222</v>
       </c>
       <c r="E4" t="n">
-        <v>54454.50849961615</v>
+        <v>54454.50849961603</v>
       </c>
       <c r="F4" t="n">
-        <v>54454.50849961617</v>
+        <v>54454.50849961603</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.66948357387</v>
+        <v>56995.66948357393</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.6694835739</v>
       </c>
       <c r="I4" t="n">
+        <v>78703.96570883352</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77680.38024331053</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77680.38024331053</v>
+      </c>
+      <c r="L4" t="n">
+        <v>78703.96570883352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>78703.96570883352</v>
+      </c>
+      <c r="N4" t="n">
         <v>78703.96570883348</v>
       </c>
-      <c r="J4" t="n">
-        <v>77680.3802433105</v>
-      </c>
-      <c r="K4" t="n">
-        <v>77680.3802433105</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>78703.96570883351</v>
       </c>
-      <c r="M4" t="n">
-        <v>78703.96570883355</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78703.96570883351</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>78703.96570883354</v>
-      </c>
-      <c r="P4" t="n">
-        <v>78703.96570883357</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34594.46178984068</v>
+        <v>34594.46178984072</v>
       </c>
       <c r="E5" t="n">
         <v>78034.1379602685</v>
@@ -26485,16 +26485,16 @@
         <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>89635.76638926388</v>
+        <v>89635.76638926387</v>
       </c>
       <c r="K5" t="n">
-        <v>89635.76638926388</v>
+        <v>89635.76638926387</v>
       </c>
       <c r="L5" t="n">
         <v>89377.9416748061</v>
@@ -26503,13 +26503,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480609</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93860.7894678973</v>
+        <v>93856.37589002919</v>
       </c>
       <c r="C6" t="n">
-        <v>93860.78946789724</v>
+        <v>93856.37589002901</v>
       </c>
       <c r="D6" t="n">
-        <v>76476.29608905941</v>
+        <v>76474.63931677928</v>
       </c>
       <c r="E6" t="n">
-        <v>-756391.41254961</v>
+        <v>-756543.7914416147</v>
       </c>
       <c r="F6" t="n">
-        <v>380572.2473568306</v>
+        <v>380419.8684648245</v>
       </c>
       <c r="G6" t="n">
-        <v>378700.8528404725</v>
+        <v>378559.5759405366</v>
       </c>
       <c r="H6" t="n">
-        <v>380807.2688702884</v>
+        <v>380665.9919703524</v>
       </c>
       <c r="I6" t="n">
-        <v>337475.0275957291</v>
+        <v>337475.0275957288</v>
       </c>
       <c r="J6" t="n">
-        <v>350402.958000298</v>
+        <v>350400.2315093644</v>
       </c>
       <c r="K6" t="n">
-        <v>386150.8954737189</v>
+        <v>386148.1689827853</v>
       </c>
       <c r="L6" t="n">
-        <v>382490.0393412542</v>
+        <v>382490.039341254</v>
       </c>
       <c r="M6" t="n">
-        <v>180646.2570856963</v>
+        <v>180646.2570856964</v>
       </c>
       <c r="N6" t="n">
-        <v>386121.287274752</v>
+        <v>386121.2872747523</v>
       </c>
       <c r="O6" t="n">
         <v>352172.4259133757</v>
       </c>
       <c r="P6" t="n">
-        <v>386121.2872747519</v>
+        <v>386121.2872747518</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F2" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.06909673899019</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45.06909673899019</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.9751366185926</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="H2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="J2" t="n">
-        <v>45.06909673899014</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45.06909673899014</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P2" t="n">
         <v>46.9751366185926</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892782</v>
+        <v>25.17422975892984</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.633020037269702</v>
+        <v>2.633020037269787</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>42.43607670172044</v>
+        <v>42.43607670172033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.539059916872127</v>
+        <v>4.539059916872198</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172045</v>
+        <v>42.43607670172047</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892782</v>
+        <v>25.17422975892984</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.60247083437</v>
+        <v>1064.602470834368</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.935005806322</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.633020037269702</v>
+        <v>2.633020037269787</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172044</v>
+        <v>42.43607670172033</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4383575709687</v>
+        <v>332.3819364816692</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6982177270621</v>
+        <v>206.5742634687732</v>
       </c>
       <c r="J8" t="n">
-        <v>3.359816860132918</v>
+        <v>3.359816860132227</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.4555080675518</v>
+        <v>143.5119291568507</v>
       </c>
       <c r="S8" t="n">
-        <v>206.7139077344602</v>
+        <v>206.71390773446</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6528337218411</v>
+        <v>222.652833721841</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3375566731402</v>
+        <v>251.3375566731401</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.2893688199556</v>
       </c>
       <c r="H9" t="n">
-        <v>111.7124852371648</v>
+        <v>111.7124852371647</v>
       </c>
       <c r="I9" t="n">
-        <v>87.53231489285297</v>
+        <v>87.53231489285282</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.79588701615839</v>
+        <v>90.73946592685868</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6773893771486</v>
+        <v>170.6773893771485</v>
       </c>
       <c r="T9" t="n">
         <v>199.9464728726664</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9378196899712</v>
+        <v>219.0617739482598</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>244.8189374192082</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,25 +28017,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.069537464723</v>
+        <v>167.9455832064345</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8235594467145</v>
+        <v>161.8235594467144</v>
       </c>
       <c r="I10" t="n">
-        <v>154.0852888282004</v>
+        <v>154.0852888282002</v>
       </c>
       <c r="J10" t="n">
-        <v>90.14967216855504</v>
+        <v>90.14967216855479</v>
       </c>
       <c r="K10" t="n">
-        <v>16.99528434524191</v>
+        <v>16.99528434524149</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.36073455809628</v>
+        <v>75.48468881638455</v>
       </c>
       <c r="R10" t="n">
-        <v>169.1957942159412</v>
+        <v>175.2522153052405</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2254669148761</v>
+        <v>216.3494211731646</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7516240514504</v>
+        <v>221.695202962151</v>
       </c>
       <c r="U10" t="n">
         <v>286.3165532027441</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="C11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="D11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="E11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="G11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="H11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="T11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="U11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="V11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="W11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="X11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="C13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="D13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="E13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="G13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="I13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="J13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="K13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="L13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="M13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="N13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="O13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="P13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="R13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="S13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="T13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="U13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="V13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="W13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="X13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="C14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="D14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="E14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="G14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="H14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="T14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="U14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="V14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="W14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="X14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="C16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="D16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="E16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="F16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="G16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="I16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="J16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="K16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="L16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="M16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="N16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="O16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="P16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="R16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="S16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="T16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="U16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="V16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="W16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="X16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.34211658132286</v>
+        <v>44.34211658132273</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859391</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859387</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="C26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="D26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="E26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="F26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="G26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="H26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="T26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="U26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="V26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="W26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="X26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="C28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="D28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="E28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="F28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="G28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="H28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="I28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="K28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="L28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="M28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="N28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="O28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="P28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="R28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="S28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="T28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="U28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="V28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="W28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="X28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="C29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="D29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="E29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="F29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="G29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="H29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="T29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="U29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="V29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="W29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="X29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="C31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="D31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="E31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="F31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="G31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="H31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="I31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="J31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="K31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="L31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="M31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="N31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="O31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="P31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="R31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="S31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="T31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="U31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="V31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="W31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="X31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899019</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859375</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859168</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.9751366185926</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1012029337042324</v>
+        <v>0.1012029337042405</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03644454479847</v>
+        <v>1.036444544798553</v>
       </c>
       <c r="I8" t="n">
-        <v>3.901626101632422</v>
+        <v>3.901626101632736</v>
       </c>
       <c r="J8" t="n">
-        <v>8.589472494479599</v>
+        <v>8.58947249448029</v>
       </c>
       <c r="K8" t="n">
-        <v>12.87339267817976</v>
+        <v>12.87339267818079</v>
       </c>
       <c r="L8" t="n">
-        <v>15.97058196053066</v>
+        <v>15.97058196053195</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7703496327933</v>
+        <v>17.77034963279473</v>
       </c>
       <c r="N8" t="n">
-        <v>18.05789246818046</v>
+        <v>18.05789246818191</v>
       </c>
       <c r="O8" t="n">
-        <v>17.05155579615899</v>
+        <v>17.05155579616036</v>
       </c>
       <c r="P8" t="n">
-        <v>14.55310837033575</v>
+        <v>14.55310837033693</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.92877830705293</v>
+        <v>10.92877830705381</v>
       </c>
       <c r="R8" t="n">
-        <v>6.357188784298492</v>
+        <v>6.357188784299003</v>
       </c>
       <c r="S8" t="n">
-        <v>2.306161851785197</v>
+        <v>2.306161851785383</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4430158422902774</v>
+        <v>0.443015842290313</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008096234696338587</v>
+        <v>0.008096234696339239</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05414834325505229</v>
+        <v>0.05414834325505664</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5229589993316893</v>
+        <v>0.5229589993317314</v>
       </c>
       <c r="I9" t="n">
-        <v>1.864317958562108</v>
+        <v>1.864317958562258</v>
       </c>
       <c r="J9" t="n">
-        <v>5.115830973934568</v>
+        <v>5.11583097393498</v>
       </c>
       <c r="K9" t="n">
-        <v>8.743769972023072</v>
+        <v>8.743769972023776</v>
       </c>
       <c r="L9" t="n">
-        <v>11.75707777562002</v>
+        <v>11.75707777562096</v>
       </c>
       <c r="M9" t="n">
-        <v>13.71995521861566</v>
+        <v>13.71995521861676</v>
       </c>
       <c r="N9" t="n">
-        <v>14.08308160825152</v>
+        <v>14.08308160825265</v>
       </c>
       <c r="O9" t="n">
-        <v>12.88326831823167</v>
+        <v>12.88326831823271</v>
       </c>
       <c r="P9" t="n">
-        <v>10.33995863437924</v>
+        <v>10.33995863438007</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.911988517960711</v>
+        <v>6.911988517961267</v>
       </c>
       <c r="R9" t="n">
-        <v>3.361947136484739</v>
+        <v>3.36194713648501</v>
       </c>
       <c r="S9" t="n">
-        <v>1.005781726689238</v>
+        <v>1.005781726689319</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2182558221552326</v>
+        <v>0.2182558221552502</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003562391003621863</v>
+        <v>0.003562391003622149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04539615202429606</v>
+        <v>0.04539615202429971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4036130607251053</v>
+        <v>0.4036130607251378</v>
       </c>
       <c r="I10" t="n">
-        <v>1.365186099057922</v>
+        <v>1.365186099058032</v>
       </c>
       <c r="J10" t="n">
-        <v>3.209507948117731</v>
+        <v>3.209507948117989</v>
       </c>
       <c r="K10" t="n">
-        <v>5.274207480640941</v>
+        <v>5.274207480641365</v>
       </c>
       <c r="L10" t="n">
-        <v>6.749169729139435</v>
+        <v>6.749169729139979</v>
       </c>
       <c r="M10" t="n">
-        <v>7.116053175953971</v>
+        <v>7.116053175954544</v>
       </c>
       <c r="N10" t="n">
-        <v>6.946849336590692</v>
+        <v>6.946849336591251</v>
       </c>
       <c r="O10" t="n">
-        <v>6.416539742488686</v>
+        <v>6.416539742489202</v>
       </c>
       <c r="P10" t="n">
-        <v>5.490458241193042</v>
+        <v>5.490458241193483</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.8013086935981</v>
+        <v>3.801308693598406</v>
       </c>
       <c r="R10" t="n">
-        <v>2.041176071928803</v>
+        <v>2.041176071928966</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7911311220961411</v>
+        <v>0.7911311220962047</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1939653768310831</v>
+        <v>0.1939653768310987</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002476153746779788</v>
+        <v>0.002476153746779987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138795</v>
@@ -32090,10 +32090,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32804,7 +32804,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33974,10 +33974,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.647816683794</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34475,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34524,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34542,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>5.660146619235171</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>5.660146619234292</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9380790925081257</v>
+        <v>0.938079092509005</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.369239647677123</v>
       </c>
       <c r="K9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.228986064066173</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6.876045741711437</v>
@@ -35340,10 +35340,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340053</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.92053319438905</v>
+        <v>89.92053319438892</v>
       </c>
       <c r="K13" t="n">
-        <v>250.3897761256424</v>
+        <v>250.3897761256422</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0994887515209</v>
+        <v>364.0994887515208</v>
       </c>
       <c r="M13" t="n">
-        <v>391.9754959748066</v>
+        <v>391.9754959748065</v>
       </c>
       <c r="N13" t="n">
-        <v>389.1990627488629</v>
+        <v>389.1990627488627</v>
       </c>
       <c r="O13" t="n">
-        <v>346.6952468039626</v>
+        <v>346.6952468039624</v>
       </c>
       <c r="P13" t="n">
-        <v>279.2991877264332</v>
+        <v>279.2991877264331</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.7363551192165</v>
+        <v>122.7363551192164</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
@@ -35738,10 +35738,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.92053319438905</v>
+        <v>89.92053319438892</v>
       </c>
       <c r="K16" t="n">
-        <v>250.3897761256424</v>
+        <v>250.3897761256422</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0994887515209</v>
+        <v>364.0994887515208</v>
       </c>
       <c r="M16" t="n">
-        <v>391.9754959748066</v>
+        <v>391.9754959748065</v>
       </c>
       <c r="N16" t="n">
-        <v>389.1990627488629</v>
+        <v>389.1990627488627</v>
       </c>
       <c r="O16" t="n">
-        <v>346.6952468039626</v>
+        <v>346.6952468039624</v>
       </c>
       <c r="P16" t="n">
-        <v>279.2991877264332</v>
+        <v>279.2991877264331</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.7363551192165</v>
+        <v>122.7363551192164</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923308</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316601</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629134</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887906</v>
@@ -36291,13 +36291,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637032</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>407.7323611338758</v>
+        <v>461.2821719260102</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>854.3633747163326</v>
+        <v>916.3617801646988</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597729</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.64751335205634</v>
+        <v>90.64751335205639</v>
       </c>
       <c r="K28" t="n">
         <v>251.1167562833097</v>
       </c>
       <c r="L28" t="n">
-        <v>364.8264689091882</v>
+        <v>364.8264689091883</v>
       </c>
       <c r="M28" t="n">
-        <v>392.7024761324739</v>
+        <v>392.702476132474</v>
       </c>
       <c r="N28" t="n">
-        <v>389.9260429065302</v>
+        <v>389.9260429065303</v>
       </c>
       <c r="O28" t="n">
         <v>347.4222269616299</v>
       </c>
       <c r="P28" t="n">
-        <v>280.0261678841005</v>
+        <v>280.0261678841006</v>
       </c>
       <c r="Q28" t="n">
         <v>123.4633352768838</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>504.5662977543575</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>703.2090333106635</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597729</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.64751335205634</v>
+        <v>90.64751335205639</v>
       </c>
       <c r="K31" t="n">
         <v>251.1167562833097</v>
       </c>
       <c r="L31" t="n">
-        <v>364.8264689091882</v>
+        <v>364.8264689091883</v>
       </c>
       <c r="M31" t="n">
-        <v>392.7024761324739</v>
+        <v>392.702476132474</v>
       </c>
       <c r="N31" t="n">
-        <v>389.9260429065301</v>
+        <v>389.9260429065303</v>
       </c>
       <c r="O31" t="n">
         <v>347.4222269616299</v>
       </c>
       <c r="P31" t="n">
-        <v>280.0261678841005</v>
+        <v>280.0261678841006</v>
       </c>
       <c r="Q31" t="n">
         <v>123.4633352768838</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,10 +37078,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>952.5051327011225</v>
+        <v>830.133944136559</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265651</v>
@@ -37312,19 +37312,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>558.3242318556926</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>571.0935268691449</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37385,10 +37385,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37552,16 +37552,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>582.7397956757068</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>329.1988939204473</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37622,10 +37622,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887918</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397228</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>739.1596830043565</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597777</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861315</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>536.7090856642569</v>
       </c>
       <c r="P44" t="n">
-        <v>685.763771666764</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004607</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
